--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1917256.010433769</v>
+        <v>-1920290.342510622</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8656875.781858984</v>
+        <v>8656875.781858981</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251.0131590807921</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -710,22 +710,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>288.5465860182658</v>
+        <v>241.7627700121621</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.58595117973795</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>108.1568209712021</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>183.9939792522729</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>165.2066625923642</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>83.15498537658401</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>41.6559205620845</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>347.7902760350591</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>161.5519252761216</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>25.5084719020914</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>146.6850513083904</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.12687015635245</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>71.4936743037169</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T14" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1819,19 +1819,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>264.6171092506987</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>173.1032215148789</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.2129851421113</v>
       </c>
       <c r="U19" t="n">
-        <v>111.7618467056232</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>161.8487948528274</v>
+        <v>232.4753817320664</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292618</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851119</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247755</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734100478</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983817</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004746</v>
       </c>
       <c r="S25" t="n">
-        <v>170.3948823173379</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>22.23616551725992</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002298</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>903.5661947296837</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>534.603677789272</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>534.603677789272</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>534.603677789272</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1920.719930502729</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="W2" t="n">
-        <v>1920.719930502729</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X2" t="n">
-        <v>1547.254172241649</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y2" t="n">
-        <v>1157.114840265837</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.2080756496231</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>163.1922959326898</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>163.1922959326898</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W4" t="n">
-        <v>409.2948950230958</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X4" t="n">
-        <v>409.2948950230958</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y4" t="n">
-        <v>409.2948950230958</v>
+        <v>513.8405610245972</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>932.2014054355407</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>932.2014054355407</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>573.9357068287902</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>573.9357068287902</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>566.9902060795868</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224067</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942546</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942546</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1695.806495672432</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>1322.340737411352</v>
+        <v>1592.680346282665</v>
       </c>
       <c r="Y5" t="n">
-        <v>932.2014054355407</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,13 +4650,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>285.8510101265798</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>686.0522967699853</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>686.0522967699853</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>458.7441094385871</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>458.7441094385871</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V7" t="n">
-        <v>204.0596212327002</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>285.8510101265798</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>285.8510101265798</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1620.08070321196</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1251.118186271548</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>892.8524876647978</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>892.8524876647978</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>885.9069869155943</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.54646147304</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>1620.08070321196</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y8" t="n">
-        <v>1620.08070321196</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.038025956152</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C10" t="n">
-        <v>216.038025956152</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>216.038025956152</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>216.038025956152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>216.038025956152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>216.038025956152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541693</v>
+        <v>579.9622657131106</v>
       </c>
       <c r="W10" t="n">
-        <v>444.0275768541693</v>
+        <v>579.9622657131106</v>
       </c>
       <c r="X10" t="n">
-        <v>216.038025956152</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.038025956152</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5042,16 +5042,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2649.230460361821</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750058</v>
@@ -5066,25 +5066,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5130,28 +5130,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>432.2000540015823</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C13" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D13" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1899.649657865964</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1707.96377369279</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1486.197158262316</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1197.09429138796</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>942.4098031820731</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>652.9926331451124</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X13" t="n">
-        <v>652.9926331451124</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y13" t="n">
-        <v>432.2000540015823</v>
+        <v>409.4810578558177</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,7 +5261,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5279,31 +5279,31 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1549.639626139993</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2528.189928969822</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N14" t="n">
-        <v>3507.942201196468</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
         <v>4461.783306331037</v>
@@ -5312,16 +5312,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5355,40 +5355,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>192.8867116300491</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C16" t="n">
-        <v>192.8867116300491</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1185.770499914444</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>931.0860117085572</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W16" t="n">
-        <v>641.6688416715965</v>
+        <v>824.2518725168941</v>
       </c>
       <c r="X16" t="n">
-        <v>413.6792907735792</v>
+        <v>596.2623216188767</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.8867116300491</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="17">
@@ -5516,22 +5516,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1518.899775139038</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2497.450077968866</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N17" t="n">
-        <v>3044.228895027648</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,13 +5592,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>579.0900014994927</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C19" t="n">
-        <v>410.1538185715858</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>410.1538185715858</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715858</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
         <v>263.2638710736754</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1866.513008862232</v>
+        <v>1545.250526232427</v>
       </c>
       <c r="U19" t="n">
-        <v>1753.622254614128</v>
+        <v>1256.147659358071</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.937766408241</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.52059637128</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X19" t="n">
-        <v>981.5310454732626</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y19" t="n">
-        <v>760.7384663297324</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,25 +5750,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1404.507041060941</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2383.057343890769</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3362.809616117416</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3865.782086996753</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862919</v>
@@ -5777,25 +5777,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5829,10 +5829,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
         <v>794.2006632320242</v>
@@ -5847,22 +5847,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>875.4238276939707</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
-        <v>706.4876447660638</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1601.173950767058</v>
+        <v>1218.236891347406</v>
       </c>
       <c r="V22" t="n">
-        <v>1346.489462561171</v>
+        <v>963.5524031415191</v>
       </c>
       <c r="W22" t="n">
-        <v>1057.07229252421</v>
+        <v>674.1352331045584</v>
       </c>
       <c r="X22" t="n">
-        <v>1057.07229252421</v>
+        <v>446.1456822065411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1057.07229252421</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="23">
@@ -5963,55 +5963,55 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277724</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563071</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811479</v>
       </c>
       <c r="M23" t="n">
-        <v>2274.668463554307</v>
+        <v>2091.135264483402</v>
       </c>
       <c r="N23" t="n">
-        <v>3254.420735780953</v>
+        <v>2637.914081542183</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232734</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6051,37 +6051,37 @@
         <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390114</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919358</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320226</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454338</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008791</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426851</v>
       </c>
       <c r="P24" t="n">
         <v>2436.460902902953</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>412.4103109586945</v>
+        <v>675.7429179653793</v>
       </c>
       <c r="C25" t="n">
-        <v>243.4741280307875</v>
+        <v>506.8067350374724</v>
       </c>
       <c r="D25" t="n">
-        <v>243.4741280307875</v>
+        <v>506.8067350374724</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374724</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374724</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121914</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442058</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927015</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.38769389225</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598114</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518527</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952186</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862228</v>
       </c>
       <c r="S25" t="n">
-        <v>1694.396966117446</v>
+        <v>1866.513008862228</v>
       </c>
       <c r="T25" t="n">
-        <v>1694.396966117446</v>
+        <v>1644.746393431754</v>
       </c>
       <c r="U25" t="n">
-        <v>1405.294099243089</v>
+        <v>1622.285620181997</v>
       </c>
       <c r="V25" t="n">
-        <v>1150.609611037203</v>
+        <v>1367.60113197611</v>
       </c>
       <c r="W25" t="n">
-        <v>861.192441000242</v>
+        <v>1078.183961939149</v>
       </c>
       <c r="X25" t="n">
-        <v>633.2028901022246</v>
+        <v>1078.183961939149</v>
       </c>
       <c r="Y25" t="n">
-        <v>412.4103109586945</v>
+        <v>857.3913827956191</v>
       </c>
     </row>
     <row r="26">
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6312,19 +6312,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6403,7 +6403,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931274</v>
@@ -6443,16 +6443,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6464,7 +6464,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6546,22 +6546,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1802.364528928006</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384027</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.079034721979</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>2253.988764961266</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,22 +6859,22 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,7 +7114,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7123,13 +7123,13 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>228.9331431646415</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>562.8579153358621</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1058.183521551621</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7324,13 +7324,13 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7348,10 +7348,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,7 +7360,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345477</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7737,10 +7737,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504495</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8690,19 +8690,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>315.167921710932</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8927,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>161.0524397463283</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,25 +9164,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>130.0020851999083</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>169.5026663584973</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9413,13 +9413,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>260.9678829613748</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>344.7025836476912</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10112,13 +10112,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131.7206825826885</v>
+        <v>166.9191285698919</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>85.98948845797281</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,22 +22702,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.2460290021994</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>32.80528251369488</v>
+        <v>88.93215267004574</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>147.0909790483779</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23671,7 +23671,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>21.59472895491416</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>113.4197768217121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>2.335964134057917</v>
       </c>
       <c r="U19" t="n">
-        <v>174.4499914999897</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>124.3630433527854</v>
+        <v>53.7364564735465</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>19.37414301410399</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>263.975672688353</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-5.562217481057792e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1231467.489346547</v>
+        <v>1231467.489346548</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1331196.590794456</v>
+        <v>1331196.590794457</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1331196.590794457</v>
+        <v>1331196.590794456</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1331196.590794456</v>
+        <v>1331196.590794457</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1331196.590794456</v>
+        <v>1331196.590794457</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71413.33528089309</v>
+        <v>71413.33528089308</v>
       </c>
       <c r="C2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="D2" t="n">
         <v>82104.17698642833</v>
       </c>
-      <c r="D2" t="n">
-        <v>82104.1769864283</v>
-      </c>
       <c r="E2" t="n">
+        <v>79416.35737739662</v>
+      </c>
+      <c r="F2" t="n">
+        <v>79416.35737739661</v>
+      </c>
+      <c r="G2" t="n">
+        <v>79416.35737739662</v>
+      </c>
+      <c r="H2" t="n">
         <v>79416.35737739659</v>
       </c>
-      <c r="F2" t="n">
-        <v>79416.35737739659</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>79416.35737739661</v>
-      </c>
-      <c r="H2" t="n">
-        <v>79416.35737739663</v>
-      </c>
-      <c r="I2" t="n">
-        <v>79416.35737739662</v>
       </c>
       <c r="J2" t="n">
         <v>82104.17698642841</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="L2" t="n">
         <v>82104.17698642841</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642841</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642841</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642841</v>
       </c>
     </row>
     <row r="3">
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>395954.8515672232</v>
+        <v>395954.8515672244</v>
       </c>
       <c r="K3" t="n">
-        <v>4.263256414560601e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363169</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="P3" t="n">
-        <v>7.389644451905042e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,7 +26418,7 @@
         <v>131186.7918361227</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
@@ -26427,37 +26427,37 @@
         <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="G4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="H4" t="n">
-        <v>21619.60799709185</v>
-      </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709196</v>
       </c>
       <c r="J4" t="n">
+        <v>12448.5078997516</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12448.50789975163</v>
+      </c>
+      <c r="L4" t="n">
         <v>12448.50789975159</v>
       </c>
-      <c r="K4" t="n">
-        <v>12448.50789975161</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>12448.5078997516</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>12448.50789975162</v>
       </c>
-      <c r="N4" t="n">
-        <v>12448.50789975163</v>
-      </c>
       <c r="O4" t="n">
-        <v>12448.50789975156</v>
+        <v>12448.50789975159</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975159</v>
+        <v>12448.5078997516</v>
       </c>
     </row>
     <row r="5">
@@ -26479,16 +26479,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371361</v>
       </c>
       <c r="J5" t="n">
         <v>103164.1158539154</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-732600.4138331836</v>
+        <v>-732867.6848758219</v>
       </c>
       <c r="C6" t="n">
         <v>-192961.4974694109</v>
@@ -26528,40 +26528,40 @@
         <v>-192961.4974694109</v>
       </c>
       <c r="E6" t="n">
-        <v>-765964.1828668157</v>
+        <v>-766031.3783570414</v>
       </c>
       <c r="F6" t="n">
-        <v>-38586.7688734089</v>
+        <v>-38653.96436363468</v>
       </c>
       <c r="G6" t="n">
-        <v>-38586.76887340893</v>
+        <v>-38653.96436363471</v>
       </c>
       <c r="H6" t="n">
-        <v>-38586.76887340887</v>
+        <v>-38653.9643636347</v>
       </c>
       <c r="I6" t="n">
-        <v>-38586.76887340891</v>
+        <v>-38653.96436363357</v>
       </c>
       <c r="J6" t="n">
-        <v>-429463.2983344618</v>
+        <v>-429463.2983344629</v>
       </c>
       <c r="K6" t="n">
-        <v>-33508.44676723865</v>
+        <v>-33508.44676723864</v>
       </c>
       <c r="L6" t="n">
+        <v>-33508.44676723855</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-163150.7616061834</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-33508.44676723861</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-52936.16476087036</v>
+      </c>
+      <c r="P6" t="n">
         <v>-33508.44676723858</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-163150.7616061835</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-33508.44676723867</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-52936.16476087026</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-33508.44676723867</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26756,7 +26756,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203962</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P2" t="n">
-        <v>9.237055564881302e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-1.832609982931131e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748377</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>215.8147130935887</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>39.20567245186913</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>26.8088008211361</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>229.7901907685221</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,25 +27664,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>204.5244380861048</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>84.09183572204383</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>105.0092714180733</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>65.99389398573589</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>224.686013379932</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>130.6624169397037</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853701</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>105.4525920154376</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.602510716717613e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30226,16 +30226,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681592</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844661</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974797</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953983</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003801</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623184</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574983</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095012</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099048</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746404</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781683</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563565</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806937</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451118</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345272</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502563</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798528</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752245</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026435</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353151</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233466</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837916</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970301</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002921</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987482</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905539</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.5396634623831</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898485</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430535</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311877</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174201</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297388</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702021</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098816</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316428</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.724773788311</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085997</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802166</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895878</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712203</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553031</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112283</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>195.7502366106279</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>297.7596336167232</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,22 +33740,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>261.5336801130329</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>565.6398038246476</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34457,13 +34457,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34939,7 +34939,7 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435293</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,10 +35258,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35410,19 +35410,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>854.0890375411587</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>616.6425541386604</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>585.5921995922405</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>625.0927807508294</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36133,13 +36133,13 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407858</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265643</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923311</v>
       </c>
       <c r="M23" t="n">
-        <v>799.8889987916016</v>
+        <v>538.9211158302256</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129103</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359093</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908535</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636235</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152068</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597679</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609562</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340047</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013283</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004583</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525857</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859618</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127267</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306603</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443192</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701978</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934834</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675396</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226394</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451101</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.3942385378934</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>61.77582919629761</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36768,10 +36768,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>163.785226202393</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37087,10 +37087,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>134.6960534463662</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>434.2980917413143</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38105,13 +38105,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
